--- a/TestData/firstFlow/tear_down.xlsx
+++ b/TestData/firstFlow/tear_down.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA8A615-7E03-474B-8A92-12A826EDEC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA29DAC-26EC-4FB8-9477-B2632F7A51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>psp-MyLinFirstFlow-tgt2</t>
   </si>
   <si>
-    <t>Delete SSH Entry</t>
-  </si>
-  <si>
     <t>Delete Source Host</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>hcm_vc</t>
+  </si>
+  <si>
+    <t>Delete Sync Relation</t>
   </si>
 </sst>
 </file>
@@ -460,12 +460,12 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -556,33 +556,33 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -604,21 +604,21 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
